--- a/简历.xlsx
+++ b/简历.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
   <si>
     <t>基本信息</t>
   </si>
@@ -522,15 +522,6 @@
     <t>Bachelor of Software Engineering in Wuhan University of Science and Technology(2013.9 - Present)</t>
   </si>
   <si>
-    <t>Familiar with C/C++ and Python programming, and good in analysing and solving problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Know about basic machine learning algorithm and can reslize some algotirhms such as k-NN, Logistic </t>
-  </si>
-  <si>
-    <t>Regression, k-means, Gradient Descent.</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -540,9 +531,6 @@
     <t>Tools and Interfaces of Training and Test in CNN</t>
   </si>
   <si>
-    <t>Software Development Internship</t>
-  </si>
-  <si>
     <t>1. Building the essential library of the project;</t>
   </si>
   <si>
@@ -556,9 +544,6 @@
   </si>
   <si>
     <t>realize the interface of the prediction and training of Convolutional Neural Network.</t>
-  </si>
-  <si>
-    <t>Caffe is developed in Linux. For the demand of project, we move Caffe to Windows platfrom, and</t>
   </si>
   <si>
     <t>Bruce Lee(李律)</t>
@@ -644,17 +629,35 @@
     <t>了解Java, JavaScript, Shell编程</t>
   </si>
   <si>
-    <t>研发工程师</t>
-  </si>
-  <si>
     <t>热爱编程，自学能力、动手能力强</t>
+  </si>
+  <si>
+    <t>Intern Experiences</t>
+  </si>
+  <si>
+    <t>Know about basic machine learning algorithm and can realize some of them.</t>
+  </si>
+  <si>
+    <t>Know about Java, JavaScript and Shell Programming</t>
+  </si>
+  <si>
+    <t>Caffe is developed in Linux. For the demand of project, we move Caffe to Windows platform, and</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Familiar with C/C++ and Python programming, and good in analyzing and solving problem.</t>
+  </si>
+  <si>
+    <t>2016.7 - Present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +723,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -747,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -814,9 +823,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -832,7 +844,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,6 +919,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -942,6 +971,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1120,26 +1166,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>89</v>
       </c>
@@ -1154,7 +1200,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>90</v>
       </c>
@@ -1169,7 +1215,7 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1184,7 +1230,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +1244,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1206,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1229,16 +1275,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="C7" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.45" customHeight="1"/>
+    <row r="9" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1252,28 +1298,28 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C11" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.45" customHeight="1"/>
+    <row r="15" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1287,19 +1333,19 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="B16" s="16"/>
       <c r="C16" s="15">
         <v>2016.3</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1310,7 +1356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="C18" s="11">
         <v>2015.5</v>
       </c>
@@ -1321,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="C19" s="11">
         <v>2014.11</v>
       </c>
@@ -1332,7 +1378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C21" s="4">
         <v>2014.9</v>
       </c>
@@ -1351,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C22" s="3">
         <v>2014.7</v>
       </c>
@@ -1362,7 +1408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C23" s="3">
         <v>2014.5</v>
       </c>
@@ -1373,8 +1419,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="14.45" customHeight="1"/>
+    <row r="25" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1388,13 +1434,13 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C27" s="1" t="s">
         <v>80</v>
       </c>
@@ -1402,17 +1448,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
@@ -1420,20 +1466,20 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D32" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" ht="14.45" customHeight="1"/>
+    <row r="34" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B34" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1445,22 +1491,22 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="14.45" customHeight="1"/>
+    <row r="37" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B37" s="8" t="s">
         <v>32</v>
       </c>
@@ -1474,16 +1520,16 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C38" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="14.45" customHeight="1"/>
+    <row r="40" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B40" s="8" t="s">
         <v>35</v>
       </c>
@@ -1497,12 +1543,12 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1523,34 +1569,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="2" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" ht="28.9" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1566,7 +1612,7 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>90</v>
       </c>
@@ -1584,7 +1630,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1648,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
@@ -1619,7 +1665,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1628,13 +1674,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1642,16 +1688,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="C7" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>57</v>
       </c>
@@ -1668,255 +1714,274 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="C11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="C13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:14" ht="16.149999999999999" customHeight="1">
+      <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="2:14" s="15" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B16" s="16"/>
+      <c r="C16" s="15">
         <v>2016.3</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="D16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="3" t="s">
+    <row r="17" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="3">
-        <v>2015.9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="11">
+    <row r="18" spans="2:14" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="C18" s="11">
         <v>2015.5</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="L20" s="9" t="s">
+      <c r="E18" s="10"/>
+      <c r="L18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="11">
+    <row r="19" spans="2:14" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="C19" s="11">
         <v>2014.11</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="4" t="s">
+    <row r="20" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C21" s="4">
+        <v>2014.9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C22" s="3">
+        <v>2014.7</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="4">
-        <v>2014.9</v>
+    <row r="23" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C23" s="3">
+        <v>2014.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3">
-        <v>2014.7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="3">
-        <v>2014.5</v>
-      </c>
-      <c r="D25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
+    <row r="24" spans="2:14" ht="14.25" customHeight="1"/>
+    <row r="25" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="2:14" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="9" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="2:14" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="C26" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="E28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="E31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="E32" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="8" t="s">
+    <row r="33" spans="2:14" ht="14.25" customHeight="1"/>
+    <row r="34" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="B34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.25" customHeight="1"/>
+    <row r="37" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="B37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1"/>
+    <row r="40" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="B40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C41" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="1" t="s">
+    <row r="42" spans="2:14" ht="16.149999999999999" customHeight="1">
+      <c r="C42" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1942,22 +2007,22 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" ht="35.450000000000003" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>91</v>
       </c>
@@ -1972,7 +2037,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="14.45" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1985,7 +2050,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2064,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2013,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2058,8 +2123,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="18" customHeight="1"/>
+    <row r="9" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
@@ -2073,28 +2138,28 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C11" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C12" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="18" customHeight="1"/>
+    <row r="15" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
@@ -2108,7 +2173,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.149999999999999" customHeight="1">
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
@@ -2119,7 +2184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C17" s="3">
         <v>2015.9</v>
       </c>
@@ -2127,7 +2192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="C18" s="11">
         <v>2015.5</v>
       </c>
@@ -2138,7 +2203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C19" s="3">
         <v>2015.4</v>
       </c>
@@ -2149,7 +2214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" s="9" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="C20" s="11">
         <v>2014.11</v>
       </c>
@@ -2160,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
@@ -2171,7 +2236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C22" s="4">
         <v>2014.9</v>
       </c>
@@ -2179,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C23" s="3">
         <v>2014.7</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C24" s="3">
         <v>2014.5</v>
       </c>
@@ -2201,8 +2266,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="18" customHeight="1"/>
+    <row r="26" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -2216,13 +2281,13 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2230,17 +2295,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D30" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C31" s="1" t="s">
         <v>81</v>
       </c>
@@ -2248,18 +2313,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D32" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="D33" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="18" customHeight="1"/>
+    <row r="35" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -2273,7 +2338,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2281,8 +2346,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:11" ht="18" customHeight="1"/>
+    <row r="38" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B38" s="8" t="s">
         <v>35</v>
       </c>
@@ -2296,12 +2361,12 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
@@ -2328,22 +2393,22 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="22.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="22.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="10.9" customHeight="1"/>
+    <row r="2" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
@@ -2357,7 +2422,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
@@ -2365,7 +2430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,7 +2438,7 @@
         <v>1994.11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2381,7 +2446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2397,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2405,7 +2470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>47</v>
       </c>
@@ -2419,7 +2484,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
@@ -2427,7 +2492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
@@ -2441,7 +2506,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2452,7 +2517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C15" s="3">
         <v>2015.9</v>
       </c>
@@ -2460,7 +2525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C16" s="4">
         <v>2015.5</v>
       </c>
@@ -2471,7 +2536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C17" s="3">
         <v>2015.4</v>
       </c>
@@ -2482,7 +2547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C18" s="4">
         <v>2014.11</v>
       </c>
@@ -2493,7 +2558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
@@ -2504,7 +2569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C20" s="4">
         <v>2014.9</v>
       </c>
@@ -2512,7 +2577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C21" s="3">
         <v>2014.7</v>
       </c>
@@ -2523,7 +2588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C22" s="3">
         <v>2014.5</v>
       </c>
@@ -2534,7 +2599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
@@ -2548,27 +2613,27 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>59</v>
       </c>
@@ -2582,27 +2647,27 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B36" s="8" t="s">
         <v>60</v>
       </c>
@@ -2616,7 +2681,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
@@ -2624,7 +2689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="B39" s="8" t="s">
         <v>63</v>
       </c>
@@ -2638,12 +2703,12 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C40" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="16.149999999999999" customHeight="1">
       <c r="C41" s="1" t="s">
         <v>64</v>
       </c>
